--- a/patient_data/patient_51.xlsx
+++ b/patient_data/patient_51.xlsx
@@ -743,7 +743,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1194,13 +1194,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1271,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1312,19 +1312,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1389,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1522,10 +1522,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1599,10 +1599,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1620,10 +1620,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1724,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2141,22 +2141,22 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>1</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
